--- a/Excel_Files/Stats_Populations/2_cm/827_nm_v.xlsx
+++ b/Excel_Files/Stats_Populations/2_cm/827_nm_v.xlsx
@@ -459,28 +459,28 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>0.0003535335571155389</v>
+        <v>0.001092211552730329</v>
       </c>
       <c r="D2">
-        <v>0.0004509451675764041</v>
+        <v>0.001163537930318055</v>
       </c>
       <c r="E2">
-        <v>0.0004009351805927092</v>
+        <v>0.001092627179943949</v>
       </c>
       <c r="F2">
-        <v>0.000367530944305664</v>
+        <v>0.001106635926323142</v>
       </c>
       <c r="G2">
-        <v>0.0002216623686351822</v>
+        <v>0.0009225443878039865</v>
       </c>
       <c r="H2">
-        <v>0.0004509451675764041</v>
+        <v>0.001163537930318055</v>
       </c>
       <c r="I2">
-        <v>0.0003799467732531117</v>
+        <v>0.001139813252584417</v>
       </c>
       <c r="J2">
-        <v>0.0005680951038642438</v>
+        <v>0.00131965586194355</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -491,28 +491,28 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>0.0001886173811158162</v>
+        <v>0.0008517510117770522</v>
       </c>
       <c r="D3">
-        <v>0.0003950895174608803</v>
+        <v>0.001078249285739849</v>
       </c>
       <c r="E3">
-        <v>0.0002816945254185484</v>
+        <v>0.00100935402065801</v>
       </c>
       <c r="F3">
-        <v>0.000165793341901365</v>
+        <v>0.0007750452827559987</v>
       </c>
       <c r="G3">
-        <v>0.0001666561356309106</v>
+        <v>0.0007448094979815162</v>
       </c>
       <c r="H3">
-        <v>0.0002762745293445559</v>
+        <v>0.0009680232939396885</v>
       </c>
       <c r="I3">
-        <v>0.0002700259226100816</v>
+        <v>0.0009490368997321251</v>
       </c>
       <c r="J3">
-        <v>0.0002317899119853782</v>
+        <v>0.0009479703288768772</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -523,28 +523,28 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>0.0001152200244758807</v>
+        <v>0.0006424457850216779</v>
       </c>
       <c r="D4">
-        <v>0.0002145430674714844</v>
+        <v>0.0008534490224523433</v>
       </c>
       <c r="E4">
-        <v>0.0001937847333806751</v>
+        <v>0.0008419287927295232</v>
       </c>
       <c r="F4">
-        <v>7.937949318480259E-05</v>
+        <v>0.0005091737519141956</v>
       </c>
       <c r="G4">
-        <v>6.713799626776951E-05</v>
+        <v>0.0004616230219289694</v>
       </c>
       <c r="H4">
-        <v>0.0001438671939904285</v>
+        <v>0.0007190242936601157</v>
       </c>
       <c r="I4">
-        <v>0.0001835344594959819</v>
+        <v>0.0008234948847821531</v>
       </c>
       <c r="J4">
-        <v>6.66150980288586E-05</v>
+        <v>0.0004603797789020567</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -555,28 +555,28 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>7.806983695813531E-06</v>
+        <v>0.0001142487524440564</v>
       </c>
       <c r="D5">
-        <v>9.640928027841788E-06</v>
+        <v>0.0001307880501675391</v>
       </c>
       <c r="E5">
-        <v>8.820606018899573E-06</v>
+        <v>0.0001242059464652418</v>
       </c>
       <c r="F5">
-        <v>4.684501612757765E-06</v>
+        <v>8.18703692041809E-05</v>
       </c>
       <c r="G5">
-        <v>3.598233069020202E-06</v>
+        <v>6.847846005980399E-05</v>
       </c>
       <c r="H5">
-        <v>5.723918387151156E-06</v>
+        <v>9.305722163651014E-05</v>
       </c>
       <c r="I5">
-        <v>1.016925625462418E-05</v>
+        <v>0.000134924603881166</v>
       </c>
       <c r="J5">
-        <v>5.321864985268614E-06</v>
+        <v>8.694954425779691E-05</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -587,28 +587,28 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>4.913041699402684E-06</v>
+        <v>8.43805774371134E-05</v>
       </c>
       <c r="D6">
-        <v>5.36054817638837E-06</v>
+        <v>9.01761507237261E-05</v>
       </c>
       <c r="E6">
-        <v>4.479672316729688E-06</v>
+        <v>7.98259727527398E-05</v>
       </c>
       <c r="F6">
-        <v>2.167047478933069E-06</v>
+        <v>4.99768859063591E-05</v>
       </c>
       <c r="G6">
-        <v>2.064929526614993E-06</v>
+        <v>4.880929205937007E-05</v>
       </c>
       <c r="H6">
-        <v>2.770920890474034E-06</v>
+        <v>5.79761591774537E-05</v>
       </c>
       <c r="I6">
-        <v>5.508727654350113E-06</v>
+        <v>9.111741741051115E-05</v>
       </c>
       <c r="J6">
-        <v>2.735583219539971E-06</v>
+        <v>5.744912624263724E-05</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -619,28 +619,28 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>2.104210235971202E-06</v>
+        <v>4.880665275658288E-05</v>
       </c>
       <c r="D7">
-        <v>3.333461428455903E-06</v>
+        <v>6.663628680096707E-05</v>
       </c>
       <c r="E7">
-        <v>1.252027938051832E-06</v>
+        <v>3.436354798348083E-05</v>
       </c>
       <c r="F7">
-        <v>7.495816482591951E-07</v>
+        <v>2.516604236638193E-05</v>
       </c>
       <c r="G7">
-        <v>1.02480029382073E-06</v>
+        <v>2.99313407052645E-05</v>
       </c>
       <c r="H7">
-        <v>7.495816482591951E-07</v>
+        <v>2.516604236638193E-05</v>
       </c>
       <c r="I7">
-        <v>3.732724356541283E-06</v>
+        <v>7.128959332250262E-05</v>
       </c>
       <c r="J7">
-        <v>9.400862280358854E-07</v>
+        <v>2.913280517554239E-05</v>
       </c>
     </row>
   </sheetData>
